--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -114,7 +114,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202503162332</t>
+    <t>202503162344</t>
   </si>
   <si>
     <t>English (en)</t>
